--- a/xlsx/country_comparison/wealth_tax_support_positive.xlsx
+++ b/xlsx/country_comparison/wealth_tax_support_positive.xlsx
@@ -439,40 +439,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.730502514966666</v>
+        <v>0.736025563269886</v>
       </c>
       <c r="C2" t="n">
-        <v>0.778328486135596</v>
+        <v>0.769812871632421</v>
       </c>
       <c r="D2" t="n">
-        <v>0.825699163070983</v>
+        <v>0.816410892274275</v>
       </c>
       <c r="E2" t="n">
-        <v>0.793946444120149</v>
+        <v>0.794191546144077</v>
       </c>
       <c r="F2" t="n">
-        <v>0.856911093283887</v>
+        <v>0.855004861376008</v>
       </c>
       <c r="G2" t="n">
-        <v>0.787126445811128</v>
+        <v>0.772613970189121</v>
       </c>
       <c r="H2" t="n">
-        <v>0.743257531406537</v>
+        <v>0.739108413044033</v>
       </c>
       <c r="I2" t="n">
-        <v>0.66986373134614</v>
+        <v>0.651316384853251</v>
       </c>
       <c r="J2" t="n">
-        <v>0.667345006318042</v>
+        <v>0.626564813798825</v>
       </c>
       <c r="K2" t="n">
-        <v>0.726055706481166</v>
+        <v>0.725989208334429</v>
       </c>
       <c r="L2" t="n">
-        <v>0.830824008283022</v>
+        <v>0.834032625970216</v>
       </c>
       <c r="M2" t="n">
-        <v>0.668519716573367</v>
+        <v>0.692107255464224</v>
       </c>
     </row>
     <row r="3">
@@ -480,40 +480,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.655187431308153</v>
+        <v>0.68722648648022</v>
       </c>
       <c r="C3" t="n">
-        <v>0.730179987515229</v>
+        <v>0.72340339900406</v>
       </c>
       <c r="D3" t="n">
-        <v>0.733459822218364</v>
+        <v>0.728356800761895</v>
       </c>
       <c r="E3" t="n">
-        <v>0.751676167081714</v>
+        <v>0.756857065334602</v>
       </c>
       <c r="F3" t="n">
-        <v>0.829385772714468</v>
+        <v>0.808583397763264</v>
       </c>
       <c r="G3" t="n">
-        <v>0.691636971561292</v>
+        <v>0.694361698760944</v>
       </c>
       <c r="H3" t="n">
-        <v>0.668835507072019</v>
+        <v>0.677451684809221</v>
       </c>
       <c r="I3" t="n">
-        <v>0.708903177868899</v>
+        <v>0.683160285425996</v>
       </c>
       <c r="J3" t="n">
-        <v>0.588123510137583</v>
+        <v>0.545049065741985</v>
       </c>
       <c r="K3" t="n">
-        <v>0.652880084053544</v>
+        <v>0.650119658748735</v>
       </c>
       <c r="L3" t="n">
-        <v>0.834051441930688</v>
+        <v>0.823638226417631</v>
       </c>
       <c r="M3" t="n">
-        <v>0.557987994059542</v>
+        <v>0.64858236551894</v>
       </c>
     </row>
     <row r="4">
@@ -521,40 +521,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.668617164643856</v>
+        <v>0.677283870007772</v>
       </c>
       <c r="C4" t="n">
-        <v>0.715676467497741</v>
+        <v>0.712317860864159</v>
       </c>
       <c r="D4" t="n">
-        <v>0.720028667170696</v>
+        <v>0.721127316087717</v>
       </c>
       <c r="E4" t="n">
-        <v>0.698436823286297</v>
+        <v>0.694749068747684</v>
       </c>
       <c r="F4" t="n">
-        <v>0.793052829406328</v>
+        <v>0.804432422482619</v>
       </c>
       <c r="G4" t="n">
-        <v>0.591574477614117</v>
+        <v>0.596879870723577</v>
       </c>
       <c r="H4" t="n">
-        <v>0.764525610537697</v>
+        <v>0.752948705099357</v>
       </c>
       <c r="I4" t="n">
-        <v>0.702975184421232</v>
+        <v>0.679584576260643</v>
       </c>
       <c r="J4" t="n">
-        <v>0.621377713100395</v>
+        <v>0.628188033199067</v>
       </c>
       <c r="K4" t="n">
-        <v>0.613805958109677</v>
+        <v>0.61372178851991</v>
       </c>
       <c r="L4" t="n">
-        <v>0.829246735421807</v>
+        <v>0.826312563514992</v>
       </c>
       <c r="M4" t="n">
-        <v>0.620375702622889</v>
+        <v>0.64908010996844</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/wealth_tax_support_positive.xlsx
+++ b/xlsx/country_comparison/wealth_tax_support_positive.xlsx
@@ -439,40 +439,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.736025563269886</v>
+        <v>0.730193662434718</v>
       </c>
       <c r="C2" t="n">
-        <v>0.769812871632421</v>
+        <v>0.775028818657959</v>
       </c>
       <c r="D2" t="n">
-        <v>0.816410892274275</v>
+        <v>0.815780084005048</v>
       </c>
       <c r="E2" t="n">
-        <v>0.794191546144077</v>
+        <v>0.80150246773981</v>
       </c>
       <c r="F2" t="n">
-        <v>0.855004861376008</v>
+        <v>0.853046872771116</v>
       </c>
       <c r="G2" t="n">
-        <v>0.772613970189121</v>
+        <v>0.773834812912964</v>
       </c>
       <c r="H2" t="n">
-        <v>0.739108413044033</v>
+        <v>0.740366502184459</v>
       </c>
       <c r="I2" t="n">
-        <v>0.651316384853251</v>
+        <v>0.684009532913697</v>
       </c>
       <c r="J2" t="n">
-        <v>0.626564813798825</v>
+        <v>0.637432617110565</v>
       </c>
       <c r="K2" t="n">
-        <v>0.725989208334429</v>
+        <v>0.723204872336276</v>
       </c>
       <c r="L2" t="n">
-        <v>0.834032625970216</v>
+        <v>0.835913808002082</v>
       </c>
       <c r="M2" t="n">
-        <v>0.692107255464224</v>
+        <v>0.672340190405297</v>
       </c>
     </row>
     <row r="3">
@@ -480,40 +480,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.68722648648022</v>
+        <v>0.695087163469566</v>
       </c>
       <c r="C3" t="n">
-        <v>0.72340339900406</v>
+        <v>0.721751061626326</v>
       </c>
       <c r="D3" t="n">
-        <v>0.728356800761895</v>
+        <v>0.730464437208618</v>
       </c>
       <c r="E3" t="n">
-        <v>0.756857065334602</v>
+        <v>0.744037134423848</v>
       </c>
       <c r="F3" t="n">
-        <v>0.808583397763264</v>
+        <v>0.813727984834656</v>
       </c>
       <c r="G3" t="n">
-        <v>0.694361698760944</v>
+        <v>0.695597533969941</v>
       </c>
       <c r="H3" t="n">
-        <v>0.677451684809221</v>
+        <v>0.686760736178608</v>
       </c>
       <c r="I3" t="n">
-        <v>0.683160285425996</v>
+        <v>0.688147030493336</v>
       </c>
       <c r="J3" t="n">
-        <v>0.545049065741985</v>
+        <v>0.561074129261497</v>
       </c>
       <c r="K3" t="n">
-        <v>0.650119658748735</v>
+        <v>0.654837851266681</v>
       </c>
       <c r="L3" t="n">
-        <v>0.823638226417631</v>
+        <v>0.83378139600928</v>
       </c>
       <c r="M3" t="n">
-        <v>0.64858236551894</v>
+        <v>0.668983024355243</v>
       </c>
     </row>
     <row r="4">
@@ -521,40 +521,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.677283870007772</v>
+        <v>0.677557523391904</v>
       </c>
       <c r="C4" t="n">
-        <v>0.712317860864159</v>
+        <v>0.718604227452546</v>
       </c>
       <c r="D4" t="n">
-        <v>0.721127316087717</v>
+        <v>0.729177201086898</v>
       </c>
       <c r="E4" t="n">
-        <v>0.694749068747684</v>
+        <v>0.708792693417225</v>
       </c>
       <c r="F4" t="n">
-        <v>0.804432422482619</v>
+        <v>0.815438416070134</v>
       </c>
       <c r="G4" t="n">
-        <v>0.596879870723577</v>
+        <v>0.605762315096442</v>
       </c>
       <c r="H4" t="n">
-        <v>0.752948705099357</v>
+        <v>0.769575657270707</v>
       </c>
       <c r="I4" t="n">
-        <v>0.679584576260643</v>
+        <v>0.664675805734066</v>
       </c>
       <c r="J4" t="n">
-        <v>0.628188033199067</v>
+        <v>0.619594208894732</v>
       </c>
       <c r="K4" t="n">
-        <v>0.61372178851991</v>
+        <v>0.616169755708608</v>
       </c>
       <c r="L4" t="n">
-        <v>0.826312563514992</v>
+        <v>0.826546455201006</v>
       </c>
       <c r="M4" t="n">
-        <v>0.64908010996844</v>
+        <v>0.641885030940829</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/wealth_tax_support_positive.xlsx
+++ b/xlsx/country_comparison/wealth_tax_support_positive.xlsx
@@ -439,40 +439,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.730193662434718</v>
+        <v>0.731696087894608</v>
       </c>
       <c r="C2" t="n">
-        <v>0.775028818657959</v>
+        <v>0.777462487235327</v>
       </c>
       <c r="D2" t="n">
-        <v>0.815780084005048</v>
+        <v>0.811819682510527</v>
       </c>
       <c r="E2" t="n">
-        <v>0.80150246773981</v>
+        <v>0.781287223190903</v>
       </c>
       <c r="F2" t="n">
-        <v>0.853046872771116</v>
+        <v>0.853525344399545</v>
       </c>
       <c r="G2" t="n">
-        <v>0.773834812912964</v>
+        <v>0.786035894202696</v>
       </c>
       <c r="H2" t="n">
-        <v>0.740366502184459</v>
+        <v>0.729513422618604</v>
       </c>
       <c r="I2" t="n">
-        <v>0.684009532913697</v>
+        <v>0.708477813372599</v>
       </c>
       <c r="J2" t="n">
-        <v>0.637432617110565</v>
+        <v>0.698913639581881</v>
       </c>
       <c r="K2" t="n">
-        <v>0.723204872336276</v>
+        <v>0.724725456010075</v>
       </c>
       <c r="L2" t="n">
-        <v>0.835913808002082</v>
+        <v>0.838567662269365</v>
       </c>
       <c r="M2" t="n">
-        <v>0.672340190405297</v>
+        <v>0.6727806591895</v>
       </c>
     </row>
     <row r="3">
@@ -480,40 +480,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.695087163469566</v>
+        <v>0.690992575670915</v>
       </c>
       <c r="C3" t="n">
-        <v>0.721751061626326</v>
+        <v>0.714499257805162</v>
       </c>
       <c r="D3" t="n">
-        <v>0.730464437208618</v>
+        <v>0.721070134661706</v>
       </c>
       <c r="E3" t="n">
-        <v>0.744037134423848</v>
+        <v>0.726487986982464</v>
       </c>
       <c r="F3" t="n">
-        <v>0.813727984834656</v>
+        <v>0.814559369018766</v>
       </c>
       <c r="G3" t="n">
-        <v>0.695597533969941</v>
+        <v>0.660300971183849</v>
       </c>
       <c r="H3" t="n">
-        <v>0.686760736178608</v>
+        <v>0.684985235226275</v>
       </c>
       <c r="I3" t="n">
-        <v>0.688147030493336</v>
+        <v>0.70015186642168</v>
       </c>
       <c r="J3" t="n">
-        <v>0.561074129261497</v>
+        <v>0.563494745997933</v>
       </c>
       <c r="K3" t="n">
-        <v>0.654837851266681</v>
+        <v>0.661124008610309</v>
       </c>
       <c r="L3" t="n">
-        <v>0.83378139600928</v>
+        <v>0.836736163847433</v>
       </c>
       <c r="M3" t="n">
-        <v>0.668983024355243</v>
+        <v>0.665720535998459</v>
       </c>
     </row>
     <row r="4">
@@ -521,40 +521,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.677557523391904</v>
+        <v>0.673528186512436</v>
       </c>
       <c r="C4" t="n">
-        <v>0.718604227452546</v>
+        <v>0.715415272565547</v>
       </c>
       <c r="D4" t="n">
-        <v>0.729177201086898</v>
+        <v>0.726710446733236</v>
       </c>
       <c r="E4" t="n">
-        <v>0.708792693417225</v>
+        <v>0.696986163471128</v>
       </c>
       <c r="F4" t="n">
-        <v>0.815438416070134</v>
+        <v>0.815418454105147</v>
       </c>
       <c r="G4" t="n">
-        <v>0.605762315096442</v>
+        <v>0.573284758980314</v>
       </c>
       <c r="H4" t="n">
-        <v>0.769575657270707</v>
+        <v>0.76571814889122</v>
       </c>
       <c r="I4" t="n">
-        <v>0.664675805734066</v>
+        <v>0.683190222935995</v>
       </c>
       <c r="J4" t="n">
-        <v>0.619594208894732</v>
+        <v>0.607691968998979</v>
       </c>
       <c r="K4" t="n">
-        <v>0.616169755708608</v>
+        <v>0.606538516747124</v>
       </c>
       <c r="L4" t="n">
-        <v>0.826546455201006</v>
+        <v>0.825079657388237</v>
       </c>
       <c r="M4" t="n">
-        <v>0.641885030940829</v>
+        <v>0.636764868365015</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/wealth_tax_support_positive.xlsx
+++ b/xlsx/country_comparison/wealth_tax_support_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -433,13 +436,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.731696087894608</v>
+        <v>0.738123324411687</v>
       </c>
       <c r="C2" t="n">
         <v>0.777462487235327</v>
@@ -469,18 +475,21 @@
         <v>0.724725456010075</v>
       </c>
       <c r="L2" t="n">
+        <v>0.767012263087234</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.838567662269365</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.6727806591895</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.690992575670915</v>
+        <v>0.693940372488163</v>
       </c>
       <c r="C3" t="n">
         <v>0.714499257805162</v>
@@ -510,18 +519,21 @@
         <v>0.661124008610309</v>
       </c>
       <c r="L3" t="n">
+        <v>0.712098345531307</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.836736163847433</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.665720535998459</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.673528186512436</v>
+        <v>0.683248627434602</v>
       </c>
       <c r="C4" t="n">
         <v>0.715415272565547</v>
@@ -551,9 +563,12 @@
         <v>0.606538516747124</v>
       </c>
       <c r="L4" t="n">
+        <v>0.746562529752133</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.825079657388237</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.636764868365015</v>
       </c>
     </row>

--- a/xlsx/country_comparison/wealth_tax_support_positive.xlsx
+++ b/xlsx/country_comparison/wealth_tax_support_positive.xlsx
@@ -445,7 +445,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.738123324411687</v>
+        <v>0.738610351305732</v>
       </c>
       <c r="C2" t="n">
         <v>0.777462487235327</v>
@@ -472,16 +472,16 @@
         <v>0.698913639581881</v>
       </c>
       <c r="K2" t="n">
-        <v>0.724725456010075</v>
+        <v>0.724772494650826</v>
       </c>
       <c r="L2" t="n">
-        <v>0.767012263087234</v>
+        <v>0.77191348422519</v>
       </c>
       <c r="M2" t="n">
         <v>0.838567662269365</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6727806591895</v>
+        <v>0.673083606323479</v>
       </c>
     </row>
     <row r="3">
@@ -489,7 +489,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.693940372488163</v>
+        <v>0.692201376910046</v>
       </c>
       <c r="C3" t="n">
         <v>0.714499257805162</v>
@@ -516,16 +516,16 @@
         <v>0.563494745997933</v>
       </c>
       <c r="K3" t="n">
-        <v>0.661124008610309</v>
+        <v>0.661253305020267</v>
       </c>
       <c r="L3" t="n">
-        <v>0.712098345531307</v>
+        <v>0.694968829774731</v>
       </c>
       <c r="M3" t="n">
         <v>0.836736163847433</v>
       </c>
       <c r="N3" t="n">
-        <v>0.665720535998459</v>
+        <v>0.665790404538871</v>
       </c>
     </row>
     <row r="4">
@@ -533,7 +533,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.683248627434602</v>
+        <v>0.682230493525959</v>
       </c>
       <c r="C4" t="n">
         <v>0.715415272565547</v>
@@ -560,16 +560,16 @@
         <v>0.607691968998979</v>
       </c>
       <c r="K4" t="n">
-        <v>0.606538516747124</v>
+        <v>0.606507362007239</v>
       </c>
       <c r="L4" t="n">
-        <v>0.746562529752133</v>
+        <v>0.738494994443583</v>
       </c>
       <c r="M4" t="n">
         <v>0.825079657388237</v>
       </c>
       <c r="N4" t="n">
-        <v>0.636764868365015</v>
+        <v>0.636399135871967</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/wealth_tax_support_positive.xlsx
+++ b/xlsx/country_comparison/wealth_tax_support_positive.xlsx
@@ -445,7 +445,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.738610351305732</v>
+        <v>0.738161485502559</v>
       </c>
       <c r="C2" t="n">
         <v>0.777462487235327</v>
@@ -475,7 +475,7 @@
         <v>0.724772494650826</v>
       </c>
       <c r="L2" t="n">
-        <v>0.77191348422519</v>
+        <v>0.767816309654674</v>
       </c>
       <c r="M2" t="n">
         <v>0.838567662269365</v>
@@ -489,10 +489,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.692201376910046</v>
+        <v>0.69211130206042</v>
       </c>
       <c r="C3" t="n">
-        <v>0.714499257805162</v>
+        <v>0.714499257805161</v>
       </c>
       <c r="D3" t="n">
         <v>0.721070134661706</v>
@@ -519,7 +519,7 @@
         <v>0.661253305020267</v>
       </c>
       <c r="L3" t="n">
-        <v>0.694968829774731</v>
+        <v>0.694644695949361</v>
       </c>
       <c r="M3" t="n">
         <v>0.836736163847433</v>
@@ -533,7 +533,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.682230493525959</v>
+        <v>0.682106860437125</v>
       </c>
       <c r="C4" t="n">
         <v>0.715415272565547</v>
@@ -563,7 +563,7 @@
         <v>0.606507362007239</v>
       </c>
       <c r="L4" t="n">
-        <v>0.738494994443583</v>
+        <v>0.73799243065225</v>
       </c>
       <c r="M4" t="n">
         <v>0.825079657388237</v>
